--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B1CD4-DE1A-4161-996C-89FA74FF1B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3729A85-73C4-4351-89CD-9E131A338403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="1848" windowWidth="11556" windowHeight="9456" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Общая сумма "Итого"</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Алишеров </t>
-  </si>
-  <si>
     <t>Аллаярова</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>Никифорович</t>
   </si>
   <si>
-    <t xml:space="preserve">Овчинников </t>
-  </si>
-  <si>
     <t>Романова</t>
   </si>
   <si>
@@ -185,7 +176,16 @@
     <t>Юсупова</t>
   </si>
   <si>
-    <t>Куропаткин 55</t>
+    <t>Овчинников</t>
+  </si>
+  <si>
+    <t>Алишеров</t>
+  </si>
+  <si>
+    <t>Куропаткин 5</t>
+  </si>
+  <si>
+    <t>Общая сумма</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -708,20 +708,20 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f>E4+J4</f>
         <v>4587</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C37" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5:K38" si="6">E5+J5</f>
         <v>4554</v>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -792,20 +792,20 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4521</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -834,20 +834,20 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4488</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -876,20 +876,20 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4455</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -918,20 +918,20 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4422</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -960,20 +960,20 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4389</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -1002,20 +1002,20 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2178</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1044,20 +1044,20 @@
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2171.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1086,20 +1086,20 @@
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2165</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1128,20 +1128,20 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2158.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1170,20 +1170,20 @@
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1212,20 +1212,20 @@
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2145.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1254,20 +1254,20 @@
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2139</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1296,20 +1296,20 @@
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2132.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1338,17 +1338,17 @@
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2126</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <f>C19-0.5</f>
@@ -1380,20 +1380,20 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2119.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1422,20 +1422,20 @@
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2113</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1464,20 +1464,20 @@
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2106.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1506,20 +1506,20 @@
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1548,20 +1548,20 @@
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2093.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1590,20 +1590,20 @@
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2087</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1632,20 +1632,20 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2080.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1674,20 +1674,20 @@
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2074</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1716,20 +1716,20 @@
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2067.5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1758,20 +1758,20 @@
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2061</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1800,20 +1800,20 @@
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2054.5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1842,20 +1842,20 @@
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1884,20 +1884,20 @@
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2041.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -1926,20 +1926,20 @@
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2035</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -1968,20 +1968,20 @@
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2028.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2010,20 +2010,20 @@
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2052,20 +2052,20 @@
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2015.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2094,13 +2094,13 @@
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2009</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2136,7 +2136,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2002.5</v>
       </c>
     </row>
@@ -2156,10 +2156,10 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(K3:K38)</f>
+        <f>ROUNDDOWN(SUM(K3:K38),1)</f>
         <v>94563</v>
       </c>
       <c r="D40" s="2"/>
@@ -2174,7 +2174,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2192,7 +2192,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2210,7 +2210,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3729A85-73C4-4351-89CD-9E131A338403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B962C1E-2BD1-4C76-A38E-94EBE5A2B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B962C1E-2BD1-4C76-A38E-94EBE5A2B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54F5CA-3F24-403A-B52F-0D6C9D56DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="1908" yWindow="-72" windowWidth="11556" windowHeight="9456" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
@@ -185,7 +179,13 @@
     <t>Куропаткин 5</t>
   </si>
   <si>
-    <t>Общая сумма</t>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -560,14 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -606,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -655,7 +655,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -696,8 +696,8 @@
       <c r="G4" s="3">
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ref="H4:H37" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
@@ -738,7 +738,7 @@
       <c r="G5" s="3">
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -780,7 +780,7 @@
       <c r="G6" s="3">
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -822,7 +822,7 @@
       <c r="G7" s="3">
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -864,7 +864,7 @@
       <c r="G8" s="3">
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -906,7 +906,7 @@
       <c r="G9" s="3">
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -948,7 +948,7 @@
       <c r="G10" s="3">
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -970,19 +970,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f>($A$1*1.1)/2</f>
-        <v>33</v>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D34" si="7">$A$1*1.1</f>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>2178</v>
+        <v>4356</v>
       </c>
       <c r="F11" s="3">
         <v>44813</v>
@@ -990,7 +990,7 @@
       <c r="G11" s="3">
         <v>44813</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" si="6"/>
-        <v>2178</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1012,19 +1012,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f>($A$1*1.1)/2</f>
-        <v>33</v>
+      <c r="D12" s="7">
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>2161.5</v>
+        <v>4323</v>
       </c>
       <c r="F12" s="3">
         <v>44813</v>
@@ -1032,7 +1032,7 @@
       <c r="G12" s="3">
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="6"/>
-        <v>2171.5</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1054,19 +1054,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:D37" si="7">($A$1*1.1)/2</f>
-        <v>33</v>
+      <c r="D13" s="7">
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>2145</v>
+        <v>4290</v>
       </c>
       <c r="F13" s="3">
         <v>44813</v>
@@ -1074,7 +1074,7 @@
       <c r="G13" s="3">
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="6"/>
-        <v>2165</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1096,19 +1096,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>2128.5</v>
+        <v>4257</v>
       </c>
       <c r="F14" s="3">
         <v>44813</v>
@@ -1116,7 +1116,7 @@
       <c r="G14" s="3">
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="6"/>
-        <v>2158.5</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1138,19 +1138,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>2112</v>
+        <v>4224</v>
       </c>
       <c r="F15" s="3">
         <v>44813</v>
@@ -1158,7 +1158,7 @@
       <c r="G15" s="3">
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="6"/>
-        <v>2152</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1180,19 +1180,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>2095.5</v>
+        <v>4191</v>
       </c>
       <c r="F16" s="3">
         <v>44813</v>
@@ -1200,7 +1200,7 @@
       <c r="G16" s="3">
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="6"/>
-        <v>2145.5</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1222,19 +1222,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>2079</v>
+        <v>4158</v>
       </c>
       <c r="F17" s="3">
         <v>44813</v>
@@ -1242,7 +1242,7 @@
       <c r="G17" s="3">
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="6"/>
-        <v>2139</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1264,19 +1264,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>2062.5</v>
+        <v>4125</v>
       </c>
       <c r="F18" s="3">
         <v>44813</v>
@@ -1284,7 +1284,7 @@
       <c r="G18" s="3">
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="6"/>
-        <v>2132.5</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1306,19 +1306,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>2046</v>
+        <v>4092</v>
       </c>
       <c r="F19" s="3">
         <v>44813</v>
@@ -1326,7 +1326,7 @@
       <c r="G19" s="3">
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="6"/>
-        <v>2126</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1348,19 +1348,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <f>C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>2029.5</v>
+        <v>4059</v>
       </c>
       <c r="F20" s="3">
         <v>44813</v>
@@ -1368,7 +1368,7 @@
       <c r="G20" s="3">
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" si="6"/>
-        <v>2119.5</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1390,19 +1390,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>2013</v>
+        <v>4026</v>
       </c>
       <c r="F21" s="3">
         <v>44813</v>
@@ -1410,7 +1410,7 @@
       <c r="G21" s="3">
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" si="6"/>
-        <v>2113</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1432,19 +1432,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>1996.5</v>
+        <v>3993</v>
       </c>
       <c r="F22" s="3">
         <v>44813</v>
@@ -1452,7 +1452,7 @@
       <c r="G22" s="3">
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" si="6"/>
-        <v>2106.5</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1474,19 +1474,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>3960</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1494,7 +1494,7 @@
       <c r="G23" s="3">
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="6"/>
-        <v>2100</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1522,13 +1522,13 @@
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>1963.5</v>
+        <v>3927</v>
       </c>
       <c r="F24" s="3">
         <v>44813</v>
@@ -1536,7 +1536,7 @@
       <c r="G24" s="3">
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="6"/>
-        <v>2093.5</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1564,13 +1564,13 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>1947</v>
+        <v>3894</v>
       </c>
       <c r="F25" s="3">
         <v>44813</v>
@@ -1578,7 +1578,7 @@
       <c r="G25" s="3">
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="6"/>
-        <v>2087</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1606,13 +1606,13 @@
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>1930.5</v>
+        <v>3861</v>
       </c>
       <c r="F26" s="3">
         <v>44813</v>
@@ -1620,7 +1620,7 @@
       <c r="G26" s="3">
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="6"/>
-        <v>2080.5</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1648,13 +1648,13 @@
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>1914</v>
+        <v>3828</v>
       </c>
       <c r="F27" s="3">
         <v>44813</v>
@@ -1662,7 +1662,7 @@
       <c r="G27" s="3">
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="6"/>
-        <v>2074</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1684,19 +1684,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>1897.5</v>
+        <v>3795</v>
       </c>
       <c r="F28" s="3">
         <v>44813</v>
@@ -1704,7 +1704,7 @@
       <c r="G28" s="3">
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="6"/>
-        <v>2067.5</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1732,13 +1732,13 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>1881</v>
+        <v>3762</v>
       </c>
       <c r="F29" s="3">
         <v>44813</v>
@@ -1746,7 +1746,7 @@
       <c r="G29" s="3">
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="6"/>
-        <v>2061</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1774,13 +1774,13 @@
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>1864.5</v>
+        <v>3729</v>
       </c>
       <c r="F30" s="3">
         <v>44813</v>
@@ -1788,7 +1788,7 @@
       <c r="G30" s="3">
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="6"/>
-        <v>2054.5</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1816,13 +1816,13 @@
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>1848</v>
+        <v>3696</v>
       </c>
       <c r="F31" s="3">
         <v>44813</v>
@@ -1830,7 +1830,7 @@
       <c r="G31" s="3">
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="K31" s="5">
         <f t="shared" si="6"/>
-        <v>2048</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>1831.5</v>
+        <v>3663</v>
       </c>
       <c r="F32" s="3">
         <v>44813</v>
@@ -1872,7 +1872,7 @@
       <c r="G32" s="3">
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="K32" s="5">
         <f t="shared" si="6"/>
-        <v>2041.5</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1900,13 +1900,13 @@
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>3630</v>
       </c>
       <c r="F33" s="3">
         <v>44813</v>
@@ -1914,7 +1914,7 @@
       <c r="G33" s="3">
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="K33" s="5">
         <f t="shared" si="6"/>
-        <v>2035</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1942,13 +1942,13 @@
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="7">
         <f t="shared" si="7"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>1798.5</v>
+        <v>3597</v>
       </c>
       <c r="F34" s="3">
         <v>44813</v>
@@ -1956,7 +1956,7 @@
       <c r="G34" s="3">
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="K34" s="5">
         <f t="shared" si="6"/>
-        <v>2028.5</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1985,12 +1985,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="7"/>
-        <v>33</v>
+        <f>D3/3</f>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>1782</v>
+        <v>1188</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1998,7 +1998,7 @@
       <c r="G35" s="3">
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="7">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="6"/>
-        <v>2022</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2026,13 +2026,13 @@
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" si="7"/>
-        <v>33</v>
+      <c r="D36" s="7">
+        <f t="shared" ref="D36:D38" si="8">D4/3</f>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>1765.5</v>
+        <v>1177</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2040,7 +2040,7 @@
       <c r="G36" s="3">
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="7">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="6"/>
-        <v>2015.5</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2068,13 +2068,13 @@
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" si="7"/>
-        <v>33</v>
+      <c r="D37" s="7">
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>1749</v>
+        <v>1166</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2082,7 +2082,7 @@
       <c r="G37" s="3">
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="7">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="6"/>
-        <v>2009</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2110,13 +2110,13 @@
         <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
-        <f>($A$1*1.1)/2</f>
-        <v>33</v>
+      <c r="D38" s="7">
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
         <f>C38*D38</f>
-        <v>1732.5</v>
+        <v>1155</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2124,8 +2124,8 @@
       <c r="G38" s="3">
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
-        <f>IF(G38&lt;=F38,0,G38-F38)</f>
+      <c r="H38" s="7">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>2002.5</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2156,11 +2156,11 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),1)</f>
-        <v>94563</v>
+        <v>139938</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2192,7 +2192,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2210,7 +2210,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54F5CA-3F24-403A-B52F-0D6C9D56DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A156083-1335-49EE-B4BE-D0938154208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="-72" windowWidth="11556" windowHeight="9456" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="15360" yWindow="732" windowWidth="11556" windowHeight="9456" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1985,12 +1985,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D3/3</f>
-        <v>22</v>
+        <f>D3/2</f>
+        <v>33</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>1188</v>
+        <v>1782</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="6"/>
-        <v>1428</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,12 +2027,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D4/3</f>
-        <v>22</v>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <v>33</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>1177</v>
+        <v>1765.5</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="6"/>
-        <v>1427</v>
+        <v>2015.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>1166</v>
+        <v>1749</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="6"/>
-        <v>1426</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2">
         <f>C38*D38</f>
-        <v>1155</v>
+        <v>1732.5</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>1425</v>
+        <v>2002.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),1)</f>
-        <v>139938</v>
+        <v>142281</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A156083-1335-49EE-B4BE-D0938154208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543DCD5-1CD0-4614-A285-FEEF2EDC381A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="732" windowWidth="11556" windowHeight="9456" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1985,12 +1985,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D3/2</f>
-        <v>33</v>
+        <f>D3/3</f>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>1782</v>
+        <v>1188</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="6"/>
-        <v>2022</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,12 +2027,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
-        <v>33</v>
+        <f t="shared" ref="D36:D38" si="8">D4/3</f>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>1765.5</v>
+        <v>1177</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="6"/>
-        <v>2015.5</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>1749</v>
+        <v>1166</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="6"/>
-        <v>2009</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E38" s="2">
         <f>C38*D38</f>
-        <v>1732.5</v>
+        <v>1155</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>2002.5</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),1)</f>
-        <v>142281</v>
+        <v>139938</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C543DCD5-1CD0-4614-A285-FEEF2EDC381A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B851A81-F865-4D3C-AD0D-050743C14FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1985,12 +1985,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D3/3</f>
-        <v>22</v>
+        <f>D3/2</f>
+        <v>33</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>1188</v>
+        <v>1782</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="6"/>
-        <v>1428</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2027,12 +2027,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D4/3</f>
-        <v>22</v>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <v>33</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>1177</v>
+        <v>1765.5</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K36" s="5">
         <f t="shared" si="6"/>
-        <v>1427</v>
+        <v>2015.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>1166</v>
+        <v>1749</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="K37" s="5">
         <f t="shared" si="6"/>
-        <v>1426</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2">
         <f>C38*D38</f>
-        <v>1155</v>
+        <v>1732.5</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>1425</v>
+        <v>2002.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C40" s="4">
         <f>ROUNDDOWN(SUM(K3:K38),1)</f>
-        <v>139938</v>
+        <v>142281</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B851A81-F865-4D3C-AD0D-050743C14FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC15AA2B-6839-48B9-8A3D-A53C71496CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="20484" yWindow="408" windowWidth="11472" windowHeight="9444" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>66</v>
       </c>
       <c r="E3" s="2">
@@ -683,11 +683,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D9" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>66</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
         <v>4587</v>
       </c>
       <c r="F4" s="3">
@@ -697,14 +697,14 @@
         <v>44806</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
@@ -714,22 +714,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C37" si="4">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>66</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4554</v>
       </c>
       <c r="F5" s="3">
@@ -739,14 +739,14 @@
         <v>44807</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
@@ -763,15 +763,15 @@
         <v>28</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
+      <c r="D6" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4521</v>
       </c>
       <c r="F6" s="3">
@@ -781,14 +781,14 @@
         <v>44808</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
@@ -798,22 +798,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4488</v>
       </c>
       <c r="F7" s="3">
@@ -823,14 +823,14 @@
         <v>44809</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
@@ -840,22 +840,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D8" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4455</v>
       </c>
       <c r="F8" s="3">
@@ -865,14 +865,14 @@
         <v>44810</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
@@ -882,22 +882,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
+      <c r="D9" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4422</v>
       </c>
       <c r="F9" s="3">
@@ -907,14 +907,14 @@
         <v>44811</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
@@ -924,22 +924,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f>$A$1*1.1</f>
+      <c r="D10" s="7">
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4389</v>
       </c>
       <c r="F10" s="3">
@@ -949,14 +949,14 @@
         <v>44812</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
@@ -966,22 +966,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" ref="D11:D34" si="7">$A$1*1.1</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4356</v>
       </c>
       <c r="F11" s="3">
@@ -991,14 +991,14 @@
         <v>44813</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
@@ -1008,22 +1008,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4323</v>
       </c>
       <c r="F12" s="3">
@@ -1033,14 +1033,14 @@
         <v>44814</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="5">
@@ -1050,22 +1050,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4290</v>
       </c>
       <c r="F13" s="3">
@@ -1075,14 +1075,14 @@
         <v>44815</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
@@ -1092,22 +1092,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4257</v>
       </c>
       <c r="F14" s="3">
@@ -1117,14 +1117,14 @@
         <v>44816</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
@@ -1134,22 +1134,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4224</v>
       </c>
       <c r="F15" s="3">
@@ -1159,14 +1159,14 @@
         <v>44817</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
@@ -1176,22 +1176,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4191</v>
       </c>
       <c r="F16" s="3">
@@ -1201,14 +1201,14 @@
         <v>44818</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
@@ -1218,22 +1218,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4158</v>
       </c>
       <c r="F17" s="3">
@@ -1243,14 +1243,14 @@
         <v>44819</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
@@ -1260,22 +1260,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4125</v>
       </c>
       <c r="F18" s="3">
@@ -1285,14 +1285,14 @@
         <v>44820</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
@@ -1302,22 +1302,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4092</v>
       </c>
       <c r="F19" s="3">
@@ -1327,14 +1327,14 @@
         <v>44821</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
@@ -1344,7 +1344,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1355,11 +1355,11 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4059</v>
       </c>
       <c r="F20" s="3">
@@ -1369,14 +1369,14 @@
         <v>44822</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
@@ -1386,22 +1386,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4026</v>
       </c>
       <c r="F21" s="3">
@@ -1411,14 +1411,14 @@
         <v>44823</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
@@ -1428,22 +1428,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3993</v>
       </c>
       <c r="F22" s="3">
@@ -1453,14 +1453,14 @@
         <v>44824</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
@@ -1470,22 +1470,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3960</v>
       </c>
       <c r="F23" s="3">
@@ -1495,14 +1495,14 @@
         <v>44825</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
@@ -1512,22 +1512,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3927</v>
       </c>
       <c r="F24" s="3">
@@ -1537,14 +1537,14 @@
         <v>44826</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
@@ -1554,22 +1554,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3894</v>
       </c>
       <c r="F25" s="3">
@@ -1579,14 +1579,14 @@
         <v>44827</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
@@ -1596,22 +1596,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3861</v>
       </c>
       <c r="F26" s="3">
@@ -1621,14 +1621,14 @@
         <v>44828</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
@@ -1638,22 +1638,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3828</v>
       </c>
       <c r="F27" s="3">
@@ -1663,14 +1663,14 @@
         <v>44829</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
@@ -1680,22 +1680,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3795</v>
       </c>
       <c r="F28" s="3">
@@ -1705,14 +1705,14 @@
         <v>44830</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
@@ -1722,22 +1722,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3762</v>
       </c>
       <c r="F29" s="3">
@@ -1747,14 +1747,14 @@
         <v>44831</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
@@ -1764,22 +1764,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3729</v>
       </c>
       <c r="F30" s="3">
@@ -1789,14 +1789,14 @@
         <v>44832</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
@@ -1806,22 +1806,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3696</v>
       </c>
       <c r="F31" s="3">
@@ -1831,14 +1831,14 @@
         <v>44833</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
@@ -1848,22 +1848,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3663</v>
       </c>
       <c r="F32" s="3">
@@ -1873,14 +1873,14 @@
         <v>44834</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
@@ -1890,22 +1890,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3630</v>
       </c>
       <c r="F33" s="3">
@@ -1915,14 +1915,14 @@
         <v>44835</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
@@ -1932,22 +1932,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3597</v>
       </c>
       <c r="F34" s="3">
@@ -1957,14 +1957,14 @@
         <v>44836</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
@@ -1974,14 +1974,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1782</v>
       </c>
       <c r="F35" s="3">
@@ -1999,14 +1999,14 @@
         <v>44837</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
@@ -2016,22 +2016,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <f t="shared" ref="D36:D38" si="7">D4/2</f>
         <v>33</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1765.5</v>
       </c>
       <c r="F36" s="3">
@@ -2041,14 +2041,14 @@
         <v>44838</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
@@ -2058,22 +2058,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1749</v>
       </c>
       <c r="F37" s="3">
@@ -2083,14 +2083,14 @@
         <v>44839</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
@@ -2100,7 +2100,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2111,7 +2111,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="E38" s="2">
@@ -2125,14 +2125,14 @@
         <v>44840</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC15AA2B-6839-48B9-8A3D-A53C71496CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C42801-B43F-41E2-BA1F-4CCCCC06CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20484" yWindow="408" windowWidth="11472" windowHeight="9444" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,14 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -694,6 +694,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="7">
@@ -736,6 +737,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="7">
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K38" si="6">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="7">E5+J5</f>
         <v>4554</v>
       </c>
     </row>
@@ -778,6 +780,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="7">
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4521</v>
       </c>
     </row>
@@ -820,6 +823,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="7">
@@ -834,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4488</v>
       </c>
     </row>
@@ -862,6 +866,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="7">
@@ -876,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4455</v>
       </c>
     </row>
@@ -904,6 +909,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="7">
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4422</v>
       </c>
     </row>
@@ -946,6 +952,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="7">
@@ -960,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4389</v>
       </c>
     </row>
@@ -988,6 +995,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="7">
@@ -1002,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4356</v>
       </c>
     </row>
@@ -1030,6 +1038,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="7">
@@ -1044,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4333</v>
       </c>
     </row>
@@ -1072,6 +1081,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="7">
@@ -1086,7 +1096,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4310</v>
       </c>
     </row>
@@ -1114,6 +1124,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="7">
@@ -1128,7 +1139,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4287</v>
       </c>
     </row>
@@ -1156,6 +1167,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="7">
@@ -1170,7 +1182,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4264</v>
       </c>
     </row>
@@ -1198,6 +1210,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="7">
@@ -1212,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4241</v>
       </c>
     </row>
@@ -1240,6 +1253,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="7">
@@ -1254,7 +1268,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4218</v>
       </c>
     </row>
@@ -1282,6 +1296,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="7">
@@ -1296,7 +1311,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4195</v>
       </c>
     </row>
@@ -1324,6 +1339,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="6"/>
         <v>44821</v>
       </c>
       <c r="H19" s="7">
@@ -1338,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4172</v>
       </c>
     </row>
@@ -1366,6 +1382,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="7">
@@ -1380,7 +1397,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4149</v>
       </c>
     </row>
@@ -1408,6 +1425,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="7">
@@ -1422,7 +1440,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4126</v>
       </c>
     </row>
@@ -1450,6 +1468,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="7">
@@ -1464,7 +1483,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4103</v>
       </c>
     </row>
@@ -1492,6 +1511,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="7">
@@ -1506,7 +1526,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4080</v>
       </c>
     </row>
@@ -1534,6 +1554,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="7">
@@ -1548,7 +1569,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4057</v>
       </c>
     </row>
@@ -1576,6 +1597,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="7">
@@ -1590,7 +1612,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4034</v>
       </c>
     </row>
@@ -1618,6 +1640,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="7">
@@ -1632,7 +1655,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4011</v>
       </c>
     </row>
@@ -1660,6 +1683,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="7">
@@ -1674,7 +1698,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3988</v>
       </c>
     </row>
@@ -1702,6 +1726,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="7">
@@ -1716,7 +1741,7 @@
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3965</v>
       </c>
     </row>
@@ -1744,6 +1769,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="7">
@@ -1758,7 +1784,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3942</v>
       </c>
     </row>
@@ -1786,6 +1812,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="7">
@@ -1800,7 +1827,7 @@
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3919</v>
       </c>
     </row>
@@ -1828,6 +1855,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="7">
@@ -1842,7 +1870,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3896</v>
       </c>
     </row>
@@ -1870,6 +1898,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="7">
@@ -1884,7 +1913,7 @@
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3873</v>
       </c>
     </row>
@@ -1912,6 +1941,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="7">
@@ -1926,7 +1956,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3850</v>
       </c>
     </row>
@@ -1954,6 +1984,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="7">
@@ -1968,7 +1999,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3827</v>
       </c>
     </row>
@@ -1989,13 +2020,14 @@
         <v>33</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f>C35*D35</f>
         <v>1782</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="7">
@@ -2010,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
     </row>
@@ -2027,7 +2059,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="7">D4/2</f>
+        <f t="shared" ref="D36:D38" si="8">D4/2</f>
         <v>33</v>
       </c>
       <c r="E36" s="2">
@@ -2038,6 +2070,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="7">
@@ -2052,7 +2085,7 @@
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2015.5</v>
       </c>
     </row>
@@ -2069,7 +2102,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="E37" s="2">
@@ -2080,6 +2113,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="7">
@@ -2094,7 +2128,7 @@
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2009</v>
       </c>
     </row>
@@ -2111,7 +2145,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="E38" s="2">
@@ -2122,6 +2156,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="7">
@@ -2136,7 +2171,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2002.5</v>
       </c>
     </row>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C42801-B43F-41E2-BA1F-4CCCCC06CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4AD0E8-409C-4944-843C-3A604967D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2194,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="4">
-        <f>ROUNDDOWN(SUM(K3:K38),1)</f>
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
         <v>142281</v>
       </c>
       <c r="D40" s="2"/>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\585ke\Desktop\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4AD0E8-409C-4944-843C-3A604967D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0CFD32-A871-47C0-93BE-780AB5A777AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
+    <workbookView xWindow="8988" yWindow="1080" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,23 +560,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.69921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -702,6 +702,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -744,7 +745,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -752,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K38" si="7">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="8">E5+J5</f>
         <v>4554</v>
       </c>
     </row>
@@ -787,7 +789,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -795,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4521</v>
       </c>
     </row>
@@ -830,7 +833,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -838,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4488</v>
       </c>
     </row>
@@ -873,7 +877,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -881,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4455</v>
       </c>
     </row>
@@ -916,7 +921,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4422</v>
       </c>
     </row>
@@ -959,7 +965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -967,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4389</v>
       </c>
     </row>
@@ -1002,7 +1009,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1010,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4356</v>
       </c>
     </row>
@@ -1045,7 +1053,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1053,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4333</v>
       </c>
     </row>
@@ -1088,7 +1097,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1096,7 +1106,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4310</v>
       </c>
     </row>
@@ -1131,7 +1141,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1139,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4287</v>
       </c>
     </row>
@@ -1174,7 +1185,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1182,7 +1194,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4264</v>
       </c>
     </row>
@@ -1217,7 +1229,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1225,7 +1238,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4241</v>
       </c>
     </row>
@@ -1260,7 +1273,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1268,7 +1282,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4218</v>
       </c>
     </row>
@@ -1303,7 +1317,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1311,7 +1326,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4195</v>
       </c>
     </row>
@@ -1346,7 +1361,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1354,7 +1370,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4172</v>
       </c>
     </row>
@@ -1389,7 +1405,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1397,7 +1414,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4149</v>
       </c>
     </row>
@@ -1432,7 +1449,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1440,7 +1458,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4126</v>
       </c>
     </row>
@@ -1475,7 +1493,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1483,7 +1502,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4103</v>
       </c>
     </row>
@@ -1518,7 +1537,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1526,7 +1546,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4080</v>
       </c>
     </row>
@@ -1561,7 +1581,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1569,7 +1590,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4057</v>
       </c>
     </row>
@@ -1604,7 +1625,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1612,7 +1634,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4034</v>
       </c>
     </row>
@@ -1647,7 +1669,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1655,7 +1678,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4011</v>
       </c>
     </row>
@@ -1690,7 +1713,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1698,7 +1722,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3988</v>
       </c>
     </row>
@@ -1733,7 +1757,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1741,7 +1766,7 @@
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3965</v>
       </c>
     </row>
@@ -1776,7 +1801,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1784,7 +1810,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3942</v>
       </c>
     </row>
@@ -1819,7 +1845,8 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1827,7 +1854,7 @@
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3919</v>
       </c>
     </row>
@@ -1862,7 +1889,8 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1870,7 +1898,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3896</v>
       </c>
     </row>
@@ -1905,7 +1933,8 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1913,7 +1942,7 @@
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3873</v>
       </c>
     </row>
@@ -1948,7 +1977,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -1956,7 +1986,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3850</v>
       </c>
     </row>
@@ -1991,7 +2021,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -1999,7 +2030,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3827</v>
       </c>
     </row>
@@ -2034,7 +2065,8 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2042,7 +2074,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2022</v>
       </c>
     </row>
@@ -2059,7 +2091,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
         <v>33</v>
       </c>
       <c r="E36" s="2">
@@ -2077,7 +2109,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2085,7 +2118,7 @@
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2015.5</v>
       </c>
     </row>
@@ -2102,7 +2135,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="E37" s="2">
@@ -2120,7 +2153,8 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2128,7 +2162,7 @@
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2009</v>
       </c>
     </row>
@@ -2145,7 +2179,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="E38" s="2">
@@ -2163,7 +2197,8 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2171,7 +2206,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2002.5</v>
       </c>
     </row>

--- a/LR3/table_1_60.xlsx
+++ b/LR3/table_1_60.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -130,15 +122,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -181,10 +164,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -586,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -612,37 +604,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -826,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -871,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1186,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1722,30 +1714,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>66</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>3828</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1771,7 +1763,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1816,7 +1808,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1861,7 +1853,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1906,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1951,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1996,7 +1988,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2041,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2086,7 +2078,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2097,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1782</v>
       </c>
       <c r="F35" s="3">
@@ -2131,7 +2123,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2176,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2221,7 +2213,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2260,49 +2252,41 @@
         <v>2002.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>142281</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>4620</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
